--- a/DBModel.xlsx
+++ b/DBModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Developpement\HTML\AtelierTestGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7A0D23-5746-4FE2-B37D-2459882CF4D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A96D3DE-1DFF-4326-981B-F89FF2C3CF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">Table : </t>
-  </si>
-  <si>
-    <t>nt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>NOM</t>
   </si>
   <si>
     <t>TYPE</t>
+  </si>
+  <si>
+    <t>Table :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Client</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
   </si>
 </sst>
 </file>
@@ -52,15 +70,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +92,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,28 +395,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
